--- a/common/src/main/webapp/imports/export-娄刚-29.xlsx
+++ b/common/src/main/webapp/imports/export-娄刚-29.xlsx
@@ -1049,10 +1049,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1079,13 +1079,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1099,77 +1105,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1184,14 +1129,61 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1206,14 +1198,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1236,7 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,31 +1254,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1332,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,13 +1356,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1320,55 +1398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,43 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,36 +1430,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1480,17 +1454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1512,6 +1486,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1527,164 +1512,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2038,7 +2038,7 @@
   <dimension ref="A1:AE29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D7" sqref="A1:R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2084,7 +2084,7 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2093,13 +2093,13 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
@@ -2121,33 +2121,33 @@
         <v>23262805</v>
       </c>
       <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2" t="s">
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AB1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2165,7 +2165,7 @@
         <v>19</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2174,13 +2174,13 @@
       <c r="H2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -2202,33 +2202,33 @@
       <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2" t="s">
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2" t="s">
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AB2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE2" s="4" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2246,7 +2246,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2255,13 +2255,13 @@
       <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -2283,31 +2283,31 @@
       <c r="R3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2" t="s">
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2" t="s">
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="2" t="s">
+      <c r="AA3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE3" s="2" t="s">
+      <c r="AB3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       <c r="E4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2336,13 +2336,13 @@
       <c r="H4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -2364,35 +2364,35 @@
       <c r="R4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="2" t="s">
+      <c r="Y4" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="Z4" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AA4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE4" s="2" t="s">
+      <c r="AB4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE4" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2406,28 +2406,28 @@
       <c r="C5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>62</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -2449,35 +2449,35 @@
       <c r="R5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2" t="s">
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y5" s="2" t="s">
+      <c r="Y5" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="Z5" s="2" t="s">
+      <c r="Z5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA5" s="2" t="s">
+      <c r="AA5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC5" s="2" t="s">
+      <c r="AB5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AD5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE5" s="2" t="s">
+      <c r="AD5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE5" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2502,13 +2502,13 @@
       <c r="H6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -2530,33 +2530,33 @@
       <c r="R6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2" t="s">
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="X6" s="2" t="s">
+      <c r="X6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="2" t="s">
+      <c r="Y6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2" t="s">
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC6" s="2" t="s">
+      <c r="AB6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AD6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AD6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE6" s="4" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2570,13 +2570,13 @@
       <c r="C7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2585,13 +2585,13 @@
       <c r="H7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -2613,35 +2613,35 @@
       <c r="R7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2" t="s">
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Y7" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="Z7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AA7" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AB7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE7" s="4" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       <c r="E8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>97</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2670,13 +2670,13 @@
       <c r="H8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>101</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -2698,35 +2698,35 @@
       <c r="R8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2" t="s">
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X8" s="2" t="s">
+      <c r="X8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Y8" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="Z8" s="2" t="s">
+      <c r="Z8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA8" s="2" t="s">
+      <c r="AA8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="AB8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC8" s="2" t="s">
+      <c r="AB8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="AD8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AD8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE8" s="4" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2746,7 +2746,7 @@
       <c r="E9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>110</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2755,13 +2755,13 @@
       <c r="H9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>114</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -2783,35 +2783,35 @@
       <c r="R9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2" t="s">
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X9" s="2" t="s">
+      <c r="X9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y9" s="2" t="s">
+      <c r="Y9" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z9" s="2" t="s">
+      <c r="Z9" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA9" s="2" t="s">
+      <c r="AA9" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="AB9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AB9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE9" s="4" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       <c r="E10" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2838,13 +2838,13 @@
       <c r="H10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -2853,7 +2853,7 @@
       <c r="M10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="3"/>
+      <c r="N10" s="2"/>
       <c r="O10" s="2" t="s">
         <v>118</v>
       </c>
@@ -2866,35 +2866,35 @@
       <c r="R10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2" t="s">
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y10" s="2" t="s">
+      <c r="Y10" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="Z10" s="2" t="s">
+      <c r="Z10" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="AA10" s="2" t="s">
+      <c r="AA10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AB10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE10" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2914,7 +2914,7 @@
       <c r="E11" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -2923,13 +2923,13 @@
       <c r="H11" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>135</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -2951,35 +2951,35 @@
       <c r="R11" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2" t="s">
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X11" s="2" t="s">
+      <c r="X11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y11" s="2" t="s">
+      <c r="Y11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z11" s="2" t="s">
+      <c r="Z11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA11" s="2" t="s">
+      <c r="AA11" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="AB11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE11" s="2" t="s">
+      <c r="AB11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE11" s="4" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2999,7 +2999,7 @@
       <c r="E12" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>143</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -3008,13 +3008,13 @@
       <c r="H12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>147</v>
       </c>
       <c r="L12" s="2" t="s">
@@ -3038,33 +3038,33 @@
       <c r="R12" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2" t="s">
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X12" s="2" t="s">
+      <c r="X12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2" t="s">
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA12" s="2" t="s">
+      <c r="AA12" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="AB12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE12" s="2" t="s">
+      <c r="AB12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE12" s="4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -3082,7 +3082,7 @@
       <c r="E13" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>154</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -3091,13 +3091,13 @@
       <c r="H13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="K13" s="3" t="s">
+      <c r="K13" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L13" s="2" t="s">
@@ -3119,35 +3119,35 @@
       <c r="R13" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2" t="s">
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X13" s="2" t="s">
+      <c r="X13" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y13" s="2" t="s">
+      <c r="Y13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z13" s="2" t="s">
+      <c r="Z13" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AA13" s="2" t="s">
+      <c r="AA13" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="AB13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE13" s="2" t="s">
+      <c r="AB13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="4" t="s">
         <v>161</v>
       </c>
     </row>
@@ -3167,7 +3167,7 @@
       <c r="E14" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>166</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -3176,13 +3176,13 @@
       <c r="H14" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>170</v>
       </c>
       <c r="L14" s="2" t="s">
@@ -3206,33 +3206,33 @@
       <c r="R14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2" t="s">
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X14" s="2" t="s">
+      <c r="X14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2" t="s">
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA14" s="2" t="s">
+      <c r="AA14" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AB14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AB14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE14" s="4" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3252,7 +3252,7 @@
       <c r="E15" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>179</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -3261,13 +3261,13 @@
       <c r="H15" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>183</v>
       </c>
       <c r="L15" s="2" t="s">
@@ -3291,35 +3291,35 @@
       <c r="R15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2" t="s">
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X15" s="2" t="s">
+      <c r="X15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y15" s="2" t="s">
+      <c r="Y15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="Z15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA15" s="2" t="s">
+      <c r="AA15" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AB15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE15" s="2" t="s">
+      <c r="AB15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="4" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3337,7 +3337,7 @@
       <c r="E16" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>190</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -3346,13 +3346,13 @@
       <c r="H16" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L16" s="2" t="s">
@@ -3376,33 +3376,33 @@
       <c r="R16" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2" t="s">
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="X16" s="2" t="s">
+      <c r="X16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2" t="s">
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA16" s="2" t="s">
+      <c r="AA16" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="AB16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE16" s="2" t="s">
+      <c r="AB16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE16" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -3422,7 +3422,7 @@
       <c r="E17" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>200</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -3431,13 +3431,13 @@
       <c r="H17" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>204</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -3459,35 +3459,35 @@
       <c r="R17" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2" t="s">
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X17" s="2" t="s">
+      <c r="X17" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Y17" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="Z17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA17" s="2" t="s">
+      <c r="AA17" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="AB17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE17" s="2" t="s">
+      <c r="AB17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE17" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -3507,7 +3507,7 @@
       <c r="E18" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -3516,13 +3516,13 @@
       <c r="H18" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>216</v>
       </c>
       <c r="L18" s="2" t="s">
@@ -3546,33 +3546,33 @@
       <c r="R18" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2" t="s">
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="X18" s="2" t="s">
+      <c r="X18" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2" t="s">
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA18" s="2" t="s">
+      <c r="AA18" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="AB18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE18" s="2" t="s">
+      <c r="AB18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE18" s="4" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
       <c r="E19" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>224</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -3601,13 +3601,13 @@
       <c r="H19" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>228</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -3631,35 +3631,35 @@
       <c r="R19" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2" t="s">
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X19" s="2" t="s">
+      <c r="X19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Y19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z19" s="2" t="s">
+      <c r="Z19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA19" s="2" t="s">
+      <c r="AA19" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="AB19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE19" s="2" t="s">
+      <c r="AB19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE19" s="4" t="s">
         <v>231</v>
       </c>
     </row>
@@ -3675,7 +3675,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>234</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -3684,13 +3684,13 @@
       <c r="H20" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -3714,33 +3714,33 @@
       <c r="R20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2" t="s">
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X20" s="2" t="s">
+      <c r="X20" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2" t="s">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA20" s="2" t="s">
+      <c r="AA20" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="AB20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE20" s="2" t="s">
+      <c r="AB20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE20" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -3760,7 +3760,7 @@
       <c r="E21" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -3769,13 +3769,13 @@
       <c r="H21" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>248</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -3799,33 +3799,33 @@
       <c r="R21" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2" t="s">
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X21" s="2" t="s">
+      <c r="X21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2" t="s">
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA21" s="2" t="s">
+      <c r="AA21" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="AB21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AB21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE21" s="4" t="s">
         <v>251</v>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       <c r="E22" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>256</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -3854,13 +3854,13 @@
       <c r="H22" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>259</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -3884,35 +3884,35 @@
       <c r="R22" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2" t="s">
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X22" s="2" t="s">
+      <c r="X22" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y22" s="2" t="s">
+      <c r="Y22" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="Z22" s="2" t="s">
+      <c r="Z22" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA22" s="2" t="s">
+      <c r="AA22" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AB22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AB22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE22" s="4" t="s">
         <v>263</v>
       </c>
     </row>
@@ -3932,7 +3932,7 @@
       <c r="E23" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>267</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -3941,13 +3941,13 @@
       <c r="H23" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>271</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -3969,35 +3969,35 @@
       <c r="R23" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2" t="s">
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X23" s="2" t="s">
+      <c r="X23" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y23" s="2" t="s">
+      <c r="Y23" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z23" s="2" t="s">
+      <c r="Z23" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA23" s="2" t="s">
+      <c r="AA23" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="AB23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE23" s="2" t="s">
+      <c r="AB23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE23" s="4" t="s">
         <v>273</v>
       </c>
     </row>
@@ -4015,7 +4015,7 @@
         <v>276</v>
       </c>
       <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>277</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -4024,13 +4024,13 @@
       <c r="H24" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>281</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -4052,35 +4052,35 @@
       <c r="R24" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2" t="s">
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X24" s="2" t="s">
+      <c r="X24" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y24" s="2" t="s">
+      <c r="Y24" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="Z24" s="2" t="s">
+      <c r="Z24" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA24" s="2" t="s">
+      <c r="AA24" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="AB24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE24" s="2" t="s">
+      <c r="AB24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE24" s="4" t="s">
         <v>284</v>
       </c>
     </row>
@@ -4100,7 +4100,7 @@
       <c r="E25" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>288</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -4109,13 +4109,13 @@
       <c r="H25" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>292</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -4139,33 +4139,33 @@
       <c r="R25" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2" t="s">
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X25" s="2" t="s">
+      <c r="X25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2" t="s">
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA25" s="2" t="s">
+      <c r="AA25" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="AB25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE25" s="2" t="s">
+      <c r="AB25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE25" s="4" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4185,7 +4185,7 @@
       <c r="E26" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>298</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -4194,13 +4194,13 @@
       <c r="H26" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="I26" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>74</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -4224,33 +4224,33 @@
       <c r="R26" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2" t="s">
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X26" s="2" t="s">
+      <c r="X26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2" t="s">
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA26" s="2" t="s">
+      <c r="AA26" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="AB26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE26" s="2" t="s">
+      <c r="AB26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE26" s="4" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4270,7 +4270,7 @@
       <c r="E27" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>308</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -4279,13 +4279,13 @@
       <c r="H27" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>313</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -4307,35 +4307,35 @@
       <c r="R27" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2" t="s">
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X27" s="2" t="s">
+      <c r="X27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y27" s="2" t="s">
+      <c r="Y27" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="Z27" s="2" t="s">
+      <c r="Z27" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA27" s="2" t="s">
+      <c r="AA27" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="AB27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AB27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE27" s="4" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="2" t="s">
         <v>318</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -4362,13 +4362,13 @@
       <c r="H28" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="K28" s="2" t="s">
         <v>321</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -4392,35 +4392,35 @@
       <c r="R28" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2" t="s">
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X28" s="2" t="s">
+      <c r="X28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y28" s="2" t="s">
+      <c r="Y28" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="Z28" s="2" t="s">
+      <c r="Z28" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="AA28" s="2" t="s">
+      <c r="AA28" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AB28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AB28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE28" s="4" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4438,7 +4438,7 @@
         <v>330</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>331</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -4447,13 +4447,13 @@
       <c r="H29" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="K29" s="2" t="s">
         <v>334</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -4477,33 +4477,33 @@
       <c r="R29" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2" t="s">
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X29" s="2" t="s">
+      <c r="X29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2" t="s">
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA29" s="2" t="s">
+      <c r="AA29" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="AB29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD29" s="2" t="s">
+      <c r="AB29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD29" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="AE29" s="2" t="s">
+      <c r="AE29" s="4" t="s">
         <v>339</v>
       </c>
     </row>
